--- a/legion_centurion/legion_centurion.xlsx
+++ b/legion_centurion/legion_centurion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/ ANTIGRAVITY/legion_centurion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679679BC-372C-FA4F-998B-A036C55EC4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856B7EB-2754-1C4F-B4F0-5403207A657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B49CA26D-17E4-1041-9F6C-DBD86CE9FF01}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{B49CA26D-17E4-1041-9F6C-DBD86CE9FF01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>MONICA ANDREA AMBRIZ GOMEZ</t>
   </si>
@@ -89,9 +89,6 @@
     <t>JORGE ANTONIO LUNA LARA</t>
   </si>
   <si>
-    <t>ANGELICA YADIRA ROMERO JAUREGUI</t>
-  </si>
-  <si>
     <t>MARIA FERNANDA CARLOS VAZQUEZ</t>
   </si>
   <si>
@@ -188,34 +185,37 @@
     <t>Va_En_Meta</t>
   </si>
   <si>
+    <t>DESIREE DE LA PEÐA OROZCO</t>
+  </si>
+  <si>
+    <t>ORLANDA JIMENA CERVANTES NUÐEZ</t>
+  </si>
+  <si>
+    <t>DARINKA UREÐA CASILLAS</t>
+  </si>
+  <si>
+    <t>PAULINA LIZBETH SOTO MUÐIZ</t>
+  </si>
+  <si>
+    <t>GABRIELA CASTAÐEDA SALAZAR</t>
+  </si>
+  <si>
     <t>ANA LAURA CONTRERAS IÐIGUEZ</t>
   </si>
   <si>
-    <t>DESIREE DE LA PEÐA OROZCO</t>
+    <t>EVELYN CAROLINA VENEGAS IÐIGUEZ</t>
+  </si>
+  <si>
+    <t>SAMUEL NUÐO RIVERA</t>
+  </si>
+  <si>
+    <t>LAURA DOLORES MONTAÐO MONTAÐO</t>
   </si>
   <si>
     <t>ANDREA CELESTE IBAÐEZ RINCON</t>
   </si>
   <si>
-    <t>DARINKA UREÐA CASILLAS</t>
-  </si>
-  <si>
-    <t>EVELYN CAROLINA VENEGAS IÐIGUEZ</t>
-  </si>
-  <si>
-    <t>GABRIELA CASTAÐEDA SALAZAR</t>
-  </si>
-  <si>
     <t>KAREN MUÐOZ GARCIA</t>
-  </si>
-  <si>
-    <t>ORLANDA JIMENA CERVANTES NUÐEZ</t>
-  </si>
-  <si>
-    <t>PAULINA LIZBETH SOTO MUÐIZ</t>
-  </si>
-  <si>
-    <t>SAMUEL NUÐO RIVERA</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,6 +293,11 @@
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -314,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -409,6 +414,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -418,7 +447,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -465,14 +494,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,8 +513,16 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -504,166 +533,6 @@
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -718,18 +587,21 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <border>
         <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color theme="7" tint="0.79998168889431442"/>
         </left>
         <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color theme="7" tint="0.79998168889431442"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color theme="7" tint="0.79998168889431442"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color theme="7" tint="0.79998168889431442"/>
         </bottom>
       </border>
     </dxf>
@@ -762,6 +634,166 @@
         </top>
         <bottom style="hair">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
         </bottom>
       </border>
     </dxf>
@@ -808,6 +840,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -827,7 +865,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -840,6 +878,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -867,7 +911,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -880,6 +924,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1001,7 +1051,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1014,12 +1064,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1040,7 +1084,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1048,7 +1092,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1061,12 +1105,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1095,7 +1133,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1108,12 +1146,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1354,14 +1386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}" name="Tabla1354" displayName="Tabla1354" ref="A1:K51" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="A1:K51" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SAMUEL NUÑO RIVERA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}" name="Tabla1354" displayName="Tabla1354" ref="A1:K50" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:K50" xr:uid="{E315FDF5-0096-7641-98E2-79A7C2A6467A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I39">
     <sortCondition descending="1" ref="E1:E39"/>
   </sortState>
@@ -1705,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272306BB-1DE5-9749-A828-31E7777A186B}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1714,7 +1740,7 @@
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
     <col min="7" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
@@ -1724,40 +1750,40 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" hidden="1">
+    </row>
+    <row r="2" spans="1:11" ht="18">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1765,75 +1791,75 @@
         <v>87538</v>
       </c>
       <c r="C2" s="2">
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
-        <v>64.5</v>
+      <c r="E2" s="28">
+        <v>70.5</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="15">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="15">
-        <v>25.5</v>
-      </c>
-      <c r="I2" s="22">
-        <v>55.5</v>
-      </c>
-      <c r="J2" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>5.375</v>
-      </c>
-      <c r="K2" s="27" t="str">
+        <v>19.5</v>
+      </c>
+      <c r="I2" s="20">
+        <v>49.5</v>
+      </c>
+      <c r="J2" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>5.875</v>
+      </c>
+      <c r="K2" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
         <v>✅ EN META</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" hidden="1">
-      <c r="A3" s="28" t="s">
-        <v>51</v>
+    <row r="3" spans="1:11" ht="18">
+      <c r="A3" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="7">
         <v>80122</v>
       </c>
       <c r="C3" s="2">
         <f>C2</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D3" s="1">
         <f>D2</f>
         <v>12</v>
       </c>
-      <c r="E3" s="3">
-        <v>52</v>
+      <c r="E3" s="28">
+        <v>54</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="15">
-        <v>38</v>
-      </c>
-      <c r="I3" s="22">
-        <v>68</v>
-      </c>
-      <c r="J3" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="K3" s="27" t="str">
+        <v>36</v>
+      </c>
+      <c r="I3" s="20">
+        <v>66</v>
+      </c>
+      <c r="J3" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>4.5</v>
+      </c>
+      <c r="K3" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
         <v>✅ EN META</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" hidden="1">
+    <row r="4" spans="1:11" ht="18">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1842,76 +1868,76 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:D42" si="0">C3</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E4" s="3">
-        <v>44.5</v>
+      <c r="E4" s="28">
+        <v>47.5</v>
       </c>
       <c r="F4" s="3">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="15">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="H4" s="15">
-        <v>45.5</v>
-      </c>
-      <c r="I4" s="22">
-        <v>75.5</v>
-      </c>
-      <c r="J4" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>3.7083333333333335</v>
-      </c>
-      <c r="K4" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" hidden="1">
-      <c r="A5" s="28" t="s">
-        <v>57</v>
+        <v>42.5</v>
+      </c>
+      <c r="I4" s="20">
+        <v>72.5</v>
+      </c>
+      <c r="J4" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>3.9583333333333335</v>
+      </c>
+      <c r="K4" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18">
+      <c r="A5" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="7">
         <v>107488</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E5" s="3">
-        <v>40</v>
+      <c r="E5" s="28">
+        <v>44</v>
       </c>
       <c r="F5" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" s="15">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5" s="15">
-        <v>50</v>
-      </c>
-      <c r="I5" s="22">
-        <v>80</v>
-      </c>
-      <c r="J5" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K5" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" hidden="1">
+        <v>46</v>
+      </c>
+      <c r="I5" s="20">
+        <v>76</v>
+      </c>
+      <c r="J5" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="K5" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1920,13 +1946,13 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="28">
         <v>33.5</v>
       </c>
       <c r="F6" s="3">
@@ -1938,58 +1964,58 @@
       <c r="H6" s="15">
         <v>56.5</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <v>86.5</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>2.7916666666666665</v>
       </c>
-      <c r="K6" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" hidden="1">
-      <c r="A7" s="28" t="s">
-        <v>53</v>
+      <c r="K6" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="7">
         <v>90355</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E7" s="3">
-        <v>30.5</v>
+      <c r="E7" s="28">
+        <v>31.5</v>
       </c>
       <c r="F7" s="3">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="G7" s="15">
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="H7" s="15">
-        <v>59.5</v>
-      </c>
-      <c r="I7" s="22">
-        <v>89.5</v>
-      </c>
-      <c r="J7" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>2.5416666666666665</v>
-      </c>
-      <c r="K7" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" hidden="1">
+        <v>58.5</v>
+      </c>
+      <c r="I7" s="20">
+        <v>88.5</v>
+      </c>
+      <c r="J7" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>2.625</v>
+      </c>
+      <c r="K7" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1998,37 +2024,37 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E8" s="3">
-        <v>27.5</v>
+      <c r="E8" s="28">
+        <v>28.5</v>
       </c>
       <c r="F8" s="3">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="G8" s="15">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
       <c r="H8" s="15">
-        <v>62.5</v>
-      </c>
-      <c r="I8" s="22">
-        <v>92.5</v>
-      </c>
-      <c r="J8" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>2.2916666666666665</v>
-      </c>
-      <c r="K8" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" hidden="1">
+        <v>61.5</v>
+      </c>
+      <c r="I8" s="20">
+        <v>91.5</v>
+      </c>
+      <c r="J8" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>2.375</v>
+      </c>
+      <c r="K8" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -2037,13 +2063,13 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="28">
         <v>19.5</v>
       </c>
       <c r="F9" s="3">
@@ -2055,34 +2081,34 @@
       <c r="H9" s="15">
         <v>70.5</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="20">
         <v>100.5</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>1.625</v>
       </c>
-      <c r="K9" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" hidden="1">
-      <c r="A10" s="28" t="s">
-        <v>58</v>
+      <c r="K9" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18">
+      <c r="A10" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="7">
         <v>104750</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="28">
         <v>17</v>
       </c>
       <c r="F10" s="3">
@@ -2094,19 +2120,19 @@
       <c r="H10" s="15">
         <v>73</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="20">
         <v>103</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="K10" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" hidden="1">
+      <c r="K10" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -2115,13 +2141,13 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="28">
         <v>16</v>
       </c>
       <c r="F11" s="3">
@@ -2133,34 +2159,34 @@
       <c r="H11" s="15">
         <v>74</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="20">
         <v>104</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K11" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" hidden="1">
-      <c r="A12" s="28" t="s">
-        <v>55</v>
+      <c r="K11" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18">
+      <c r="A12" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="7">
         <v>105696</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="28">
         <v>15.5</v>
       </c>
       <c r="F12" s="3">
@@ -2172,19 +2198,19 @@
       <c r="H12" s="15">
         <v>74.5</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="20">
         <v>104.5</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="K12" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" hidden="1">
+      <c r="K12" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -2193,13 +2219,13 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="28">
         <v>15</v>
       </c>
       <c r="F13" s="3">
@@ -2211,97 +2237,97 @@
       <c r="H13" s="15">
         <v>75</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <v>105</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>1.25</v>
       </c>
-      <c r="K13" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" hidden="1">
+      <c r="K13" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7">
+        <v>100677</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="28">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15">
+        <v>57</v>
+      </c>
+      <c r="H14" s="15">
+        <v>75</v>
+      </c>
+      <c r="I14" s="20">
+        <v>105</v>
+      </c>
+      <c r="J14" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>1.25</v>
+      </c>
+      <c r="K14" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
         <v>80925</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="28">
         <v>14.5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>33.5</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G15" s="15">
         <v>57.5</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H15" s="15">
         <v>75.5</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I15" s="20">
         <v>105.5</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J15" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="K14" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" hidden="1">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7">
-        <v>100677</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E15" s="3">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3">
-        <v>34</v>
-      </c>
-      <c r="G15" s="15">
-        <v>58</v>
-      </c>
-      <c r="H15" s="15">
-        <v>76</v>
-      </c>
-      <c r="I15" s="22">
-        <v>106</v>
-      </c>
-      <c r="J15" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="K15" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" hidden="1">
+      <c r="K15" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -2310,13 +2336,13 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="28">
         <v>13</v>
       </c>
       <c r="F16" s="3">
@@ -2328,34 +2354,34 @@
       <c r="H16" s="15">
         <v>77</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="20">
         <v>107</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="K16" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" hidden="1">
+      <c r="K16" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B17" s="7">
-        <v>110575</v>
+        <v>114100</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="28">
         <v>12</v>
       </c>
       <c r="F17" s="3">
@@ -2367,112 +2393,112 @@
       <c r="H17" s="15">
         <v>78</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="20">
         <v>108</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>1</v>
       </c>
-      <c r="K17" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" hidden="1">
+      <c r="K17" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18">
       <c r="A18" s="6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7">
+        <v>110575</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E18" s="28">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3">
+        <v>36</v>
+      </c>
+      <c r="G18" s="15">
+        <v>60</v>
+      </c>
+      <c r="H18" s="15">
+        <v>78</v>
+      </c>
+      <c r="I18" s="20">
+        <v>108</v>
+      </c>
+      <c r="J18" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="7">
         <v>113450</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E19" s="28">
         <v>10.5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>37.5</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G19" s="15">
         <v>61.5</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="15">
         <v>79.5</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I19" s="20">
         <v>109.5</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J19" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.875</v>
       </c>
-      <c r="K18" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" hidden="1">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="7">
-        <v>114100</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3">
-        <v>38</v>
-      </c>
-      <c r="G19" s="15">
-        <v>62</v>
-      </c>
-      <c r="H19" s="15">
-        <v>80</v>
-      </c>
-      <c r="I19" s="22">
-        <v>110</v>
-      </c>
-      <c r="J19" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K19" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" hidden="1">
-      <c r="A20" s="28" t="s">
-        <v>54</v>
+      <c r="K19" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18">
+      <c r="A20" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="B20" s="7">
         <v>109998</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="28">
         <v>10</v>
       </c>
       <c r="F20" s="3">
@@ -2484,112 +2510,112 @@
       <c r="H20" s="15">
         <v>80</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="20">
         <v>110</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="K20" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="18" hidden="1">
+      <c r="K20" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7">
+        <v>115047</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E21" s="28">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>38</v>
+      </c>
+      <c r="G21" s="15">
+        <v>62</v>
+      </c>
+      <c r="H21" s="15">
+        <v>80</v>
+      </c>
+      <c r="I21" s="20">
+        <v>110</v>
+      </c>
+      <c r="J21" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K21" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18">
+      <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="7">
         <v>112083</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="28">
         <v>9</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>39</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="15">
         <v>63</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="15">
         <v>81</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I22" s="20">
         <v>111</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J22" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.75</v>
       </c>
-      <c r="K21" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" hidden="1">
-      <c r="A22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="K22" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="7">
         <v>115404</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>39.5</v>
-      </c>
-      <c r="G22" s="15">
-        <v>63.5</v>
-      </c>
-      <c r="H22" s="15">
-        <v>81.5</v>
-      </c>
-      <c r="I22" s="22">
-        <v>111.5</v>
-      </c>
-      <c r="J22" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K22" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="18" hidden="1">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="7">
-        <v>111960</v>
-      </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="28">
         <v>8.5</v>
       </c>
       <c r="F23" s="3">
@@ -2601,175 +2627,175 @@
       <c r="H23" s="15">
         <v>81.5</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="20">
         <v>111.5</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="K23" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18" hidden="1">
+      <c r="K23" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B24" s="7">
-        <v>115047</v>
+        <v>111960</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E24" s="3">
-        <v>8</v>
+      <c r="E24" s="28">
+        <v>8.5</v>
       </c>
       <c r="F24" s="3">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="G24" s="15">
-        <v>64</v>
+        <v>63.5</v>
       </c>
       <c r="H24" s="15">
-        <v>82</v>
-      </c>
-      <c r="I24" s="22">
-        <v>112</v>
-      </c>
-      <c r="J24" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K24" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18" hidden="1">
+        <v>81.5</v>
+      </c>
+      <c r="I24" s="20">
+        <v>111.5</v>
+      </c>
+      <c r="J24" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K24" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18">
       <c r="A25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="7">
+        <v>101640</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E25" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>40.5</v>
+      </c>
+      <c r="G25" s="15">
+        <v>64.5</v>
+      </c>
+      <c r="H25" s="15">
+        <v>82.5</v>
+      </c>
+      <c r="I25" s="20">
+        <v>112.5</v>
+      </c>
+      <c r="J25" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0.625</v>
+      </c>
+      <c r="K25" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18">
+      <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="7">
         <v>109819</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E26" s="28">
         <v>7</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>41</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G26" s="15">
         <v>65</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H26" s="15">
         <v>83</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I26" s="20">
         <v>113</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J26" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="K25" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18" hidden="1">
-      <c r="A26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="7">
-        <v>110105</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>41.5</v>
-      </c>
-      <c r="G26" s="15">
-        <v>65.5</v>
-      </c>
-      <c r="H26" s="15">
-        <v>83.5</v>
-      </c>
-      <c r="I26" s="22">
-        <v>113.5</v>
-      </c>
-      <c r="J26" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K26" s="27" t="str">
+      <c r="K26" s="25" t="str">
         <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
         <v>❌ POR DEBAJO</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18">
-      <c r="A27" s="28" t="s">
-        <v>59</v>
+      <c r="A27" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="B27" s="7">
-        <v>101640</v>
+        <v>106018</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E27" s="3">
-        <v>6.5</v>
+      <c r="E27" s="28">
+        <v>7</v>
       </c>
       <c r="F27" s="3">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="G27" s="15">
-        <v>65.5</v>
+        <v>65</v>
       </c>
       <c r="H27" s="15">
-        <v>83.5</v>
-      </c>
-      <c r="I27" s="22">
-        <v>113.5</v>
-      </c>
-      <c r="J27" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K27" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="18" hidden="1">
+        <v>83</v>
+      </c>
+      <c r="I27" s="20">
+        <v>113</v>
+      </c>
+      <c r="J27" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18">
       <c r="A28" s="6" t="s">
         <v>14</v>
       </c>
@@ -2778,13 +2804,13 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="28">
         <v>6.5</v>
       </c>
       <c r="F28" s="3">
@@ -2796,73 +2822,73 @@
       <c r="H28" s="15">
         <v>83.5</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="20">
         <v>113.5</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K28" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18" hidden="1">
+      <c r="K28" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18">
       <c r="A29" s="6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B29" s="7">
-        <v>116060</v>
+        <v>110105</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E29" s="3">
-        <v>6</v>
+      <c r="E29" s="28">
+        <v>6.5</v>
       </c>
       <c r="F29" s="3">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="G29" s="15">
-        <v>66</v>
+        <v>65.5</v>
       </c>
       <c r="H29" s="15">
-        <v>84</v>
-      </c>
-      <c r="I29" s="22">
-        <v>114</v>
-      </c>
-      <c r="J29" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.5</v>
-      </c>
-      <c r="K29" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="18" hidden="1">
+        <v>83.5</v>
+      </c>
+      <c r="I29" s="20">
+        <v>113.5</v>
+      </c>
+      <c r="J29" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K29" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18">
       <c r="A30" s="6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B30" s="7">
-        <v>106018</v>
+        <v>114157</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="28">
         <v>6</v>
       </c>
       <c r="F30" s="3">
@@ -2874,34 +2900,34 @@
       <c r="H30" s="15">
         <v>84</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="20">
         <v>114</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
       </c>
-      <c r="K30" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="18" hidden="1">
+      <c r="K30" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18">
       <c r="A31" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7">
-        <v>113076</v>
+        <v>116060</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="28">
         <v>6</v>
       </c>
       <c r="F31" s="3">
@@ -2913,58 +2939,58 @@
       <c r="H31" s="15">
         <v>84</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="20">
         <v>114</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.5</v>
       </c>
-      <c r="K31" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="18" hidden="1">
+      <c r="K31" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18">
       <c r="A32" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7">
-        <v>114431</v>
+        <v>113076</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E32" s="3">
-        <v>5.5</v>
+      <c r="E32" s="28">
+        <v>6</v>
       </c>
       <c r="F32" s="3">
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="G32" s="15">
-        <v>66.5</v>
+        <v>66</v>
       </c>
       <c r="H32" s="15">
-        <v>84.5</v>
-      </c>
-      <c r="I32" s="22">
-        <v>114.5</v>
-      </c>
-      <c r="J32" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K32" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="18" hidden="1">
+        <v>84</v>
+      </c>
+      <c r="I32" s="20">
+        <v>114</v>
+      </c>
+      <c r="J32" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
@@ -2973,13 +2999,13 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="28">
         <v>5.5</v>
       </c>
       <c r="F33" s="3">
@@ -2991,73 +3017,73 @@
       <c r="H33" s="15">
         <v>84.5</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="20">
         <v>114.5</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="K33" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="18" hidden="1">
+      <c r="K33" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="18">
       <c r="A34" s="6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B34" s="7">
+        <v>114431</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>46022</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E34" s="28">
+        <v>5.5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="G34" s="15">
+        <v>66.5</v>
+      </c>
+      <c r="H34" s="15">
+        <v>84.5</v>
+      </c>
+      <c r="I34" s="20">
+        <v>114.5</v>
+      </c>
+      <c r="J34" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K34" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18">
+      <c r="A35" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="7">
         <v>63441</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" si="0"/>
-        <v>46014</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3">
-        <v>43</v>
-      </c>
-      <c r="G34" s="15">
-        <v>67</v>
-      </c>
-      <c r="H34" s="15">
-        <v>85</v>
-      </c>
-      <c r="I34" s="22">
-        <v>115</v>
-      </c>
-      <c r="J34" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="K34" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="18" hidden="1">
-      <c r="A35" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="7">
-        <v>112522</v>
-      </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="28">
         <v>5</v>
       </c>
       <c r="F35" s="3">
@@ -3069,19 +3095,19 @@
       <c r="H35" s="15">
         <v>85</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="20">
         <v>115</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="K35" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="18" hidden="1">
+      <c r="K35" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18">
       <c r="A36" s="6" t="s">
         <v>15</v>
       </c>
@@ -3090,13 +3116,13 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="28">
         <v>5</v>
       </c>
       <c r="F36" s="3">
@@ -3108,34 +3134,34 @@
       <c r="H36" s="15">
         <v>85</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="20">
         <v>115</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="K36" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="18" hidden="1">
+      <c r="K36" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18">
       <c r="A37" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B37" s="7">
-        <v>114157</v>
+        <v>112522</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="28">
         <v>5</v>
       </c>
       <c r="F37" s="3">
@@ -3147,34 +3173,34 @@
       <c r="H37" s="15">
         <v>85</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="20">
         <v>115</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="K37" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="18" hidden="1">
+      <c r="K37" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18">
       <c r="A38" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B38" s="7">
-        <v>65046</v>
+        <v>94205</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="28">
         <v>4.5</v>
       </c>
       <c r="F38" s="3">
@@ -3186,34 +3212,34 @@
       <c r="H38" s="15">
         <v>85.5</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="20">
         <v>115.5</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.375</v>
       </c>
-      <c r="K38" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="18" hidden="1">
+      <c r="K38" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18">
       <c r="A39" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B39" s="7">
-        <v>94205</v>
+        <v>65046</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="28">
         <v>4.5</v>
       </c>
       <c r="F39" s="3">
@@ -3225,34 +3251,34 @@
       <c r="H39" s="15">
         <v>85.5</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="20">
         <v>115.5</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.375</v>
       </c>
-      <c r="K39" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="18" hidden="1">
+      <c r="K39" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18">
       <c r="A40" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="7">
         <v>114664</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="28">
         <v>4</v>
       </c>
       <c r="F40" s="3">
@@ -3264,73 +3290,73 @@
       <c r="H40" s="15">
         <v>86</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="20">
         <v>116</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K40" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18" hidden="1">
-      <c r="A41" s="28" t="s">
-        <v>52</v>
+      <c r="K40" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18">
+      <c r="A41" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="B41" s="7">
         <v>88234</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E41" s="3">
-        <v>2.5</v>
+      <c r="E41" s="28">
+        <v>3.5</v>
       </c>
       <c r="F41" s="3">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="G41" s="15">
-        <v>69.5</v>
+        <v>68.5</v>
       </c>
       <c r="H41" s="15">
-        <v>87.5</v>
-      </c>
-      <c r="I41" s="22">
-        <v>117.5</v>
-      </c>
-      <c r="J41" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="K41" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="18" hidden="1">
+        <v>86.5</v>
+      </c>
+      <c r="I41" s="20">
+        <v>116.5</v>
+      </c>
+      <c r="J41" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="K41" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18">
       <c r="A42" s="6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B42" s="7">
-        <v>108920</v>
+        <v>81044</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="28">
         <v>2</v>
       </c>
       <c r="F42" s="3">
@@ -3342,34 +3368,34 @@
       <c r="H42" s="15">
         <v>88</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="20">
         <v>118</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K42" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="18" hidden="1">
+      <c r="K42" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="18">
       <c r="A43" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="7">
         <v>90177</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ref="C43:D43" si="1">C42</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="28">
         <v>2</v>
       </c>
       <c r="F43" s="3">
@@ -3381,34 +3407,34 @@
       <c r="H43" s="15">
         <v>88</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="21">
         <v>118</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K43" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="18" hidden="1">
+      <c r="K43" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="18">
       <c r="A44" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="7">
         <v>98797</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ref="C44:D44" si="2">C43</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="28">
         <v>1.5</v>
       </c>
       <c r="F44" s="3">
@@ -3420,73 +3446,73 @@
       <c r="H44" s="15">
         <v>88.5</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="21">
         <v>118.5</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0.125</v>
       </c>
-      <c r="K44" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="18" hidden="1">
-      <c r="A45" s="28" t="s">
-        <v>56</v>
+      <c r="K44" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="18">
+      <c r="A45" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="B45" s="7">
-        <v>81044</v>
+        <v>102825</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ref="C45:D45" si="3">C44</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E45" s="18">
-        <v>1.5</v>
+      <c r="E45" s="28">
+        <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="G45" s="15">
-        <v>70.5</v>
+        <v>71</v>
       </c>
       <c r="H45" s="15">
-        <v>88.5</v>
-      </c>
-      <c r="I45" s="23">
-        <v>118.5</v>
-      </c>
-      <c r="J45" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0.125</v>
-      </c>
-      <c r="K45" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="18" hidden="1">
+        <v>89</v>
+      </c>
+      <c r="I45" s="21">
+        <v>119</v>
+      </c>
+      <c r="J45" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K45" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18">
       <c r="A46" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B46" s="7">
-        <v>102825</v>
+        <v>94156</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ref="C46:D46" si="4">C45</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="28">
         <v>1</v>
       </c>
       <c r="F46" s="3">
@@ -3498,112 +3524,112 @@
       <c r="H46" s="15">
         <v>89</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="21">
         <v>119</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J46" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K46" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="18" hidden="1">
+      <c r="K46" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="18">
       <c r="A47" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B47" s="7">
-        <v>94156</v>
+        <v>103982</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ref="C47:D47" si="5">C46</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E47" s="18">
-        <v>1</v>
+      <c r="E47" s="28">
+        <v>0.5</v>
       </c>
       <c r="F47" s="3">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="G47" s="15">
-        <v>71</v>
+        <v>71.5</v>
       </c>
       <c r="H47" s="15">
-        <v>89</v>
-      </c>
-      <c r="I47" s="23">
-        <v>119</v>
-      </c>
-      <c r="J47" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K47" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="18" hidden="1">
+        <v>89.5</v>
+      </c>
+      <c r="I47" s="21">
+        <v>119.5</v>
+      </c>
+      <c r="J47" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K47" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18">
       <c r="A48" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B48" s="7">
-        <v>103982</v>
+        <v>69684</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ref="C48:D48" si="6">C47</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="E48" s="18">
-        <v>0.5</v>
+      <c r="E48" s="28">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="G48" s="15">
-        <v>71.5</v>
+        <v>72</v>
       </c>
       <c r="H48" s="15">
-        <v>89.5</v>
-      </c>
-      <c r="I48" s="23">
-        <v>119.5</v>
-      </c>
-      <c r="J48" s="25">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K48" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="18" hidden="1">
+        <v>90</v>
+      </c>
+      <c r="I48" s="21">
+        <v>120</v>
+      </c>
+      <c r="J48" s="23">
+        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="18">
       <c r="A49" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" s="7">
-        <v>59120</v>
+        <v>81618</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" ref="C49:D49" si="7">C48</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="28">
         <v>0</v>
       </c>
       <c r="F49" s="3">
@@ -3615,34 +3641,34 @@
       <c r="H49" s="15">
         <v>90</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="21">
         <v>120</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0</v>
       </c>
-      <c r="K49" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="18" hidden="1">
+      <c r="K49" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="18">
       <c r="A50" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B50" s="10">
-        <v>69684</v>
+        <v>59120</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" ref="C50:D50" si="8">C49</f>
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="28">
         <v>0</v>
       </c>
       <c r="F50" s="3">
@@ -3654,139 +3680,113 @@
       <c r="H50" s="15">
         <v>90</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="21">
         <v>120</v>
       </c>
-      <c r="J50" s="25">
+      <c r="J50" s="23">
         <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
         <v>0</v>
       </c>
-      <c r="K50" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="18" hidden="1">
-      <c r="A51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="12">
-        <v>81618</v>
-      </c>
-      <c r="C51" s="13">
-        <f t="shared" ref="C51:D51" si="9">C50</f>
-        <v>46014</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="E51" s="19">
-        <v>0</v>
-      </c>
-      <c r="F51" s="14">
-        <v>48</v>
-      </c>
-      <c r="G51" s="16">
-        <v>72</v>
-      </c>
-      <c r="H51" s="16">
-        <v>90</v>
-      </c>
-      <c r="I51" s="24">
-        <v>120</v>
-      </c>
-      <c r="J51" s="26">
-        <f>Tabla1354[[#This Row],[Total_Polizas]]/Tabla1354[[#This Row],[Mes_Actual]]</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="27" t="str">
-        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
-        <v>❌ POR DEBAJO</v>
-      </c>
+      <c r="K50" s="25" t="str">
+        <f>IF(Tabla1354[[#This Row],[Total_Polizas]] &gt;= (Tabla1354[[#This Row],[Mes_Actual]] * 4), "✅ EN META", "❌ POR DEBAJO")</f>
+        <v>❌ POR DEBAJO</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="18">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A3">
     <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:B51">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>$B51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="14" stopIfTrue="1">
       <formula>$B50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
-      <formula>$B51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D51">
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="C2:D50">
+    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F51">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="E2:E50">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$B2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F50 E51:F51">
+    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H51">
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="G2:H50">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
